--- a/biology/Zoologie/Euglandina_rosea/Euglandina_rosea.xlsx
+++ b/biology/Zoologie/Euglandina_rosea/Euglandina_rosea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euglandina rosea est une espèce d'escargots terrestres. Elle fait partie des rares espèces d'escargots « carnivores », prédateurs d'autres escargots[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euglandina rosea est une espèce d'escargots terrestres. Elle fait partie des rares espèces d'escargots « carnivores », prédateurs d'autres escargots.
 C'est une espèce devenue invasive et qui peut être source d'un grave déséquilibre écologique, voire d'extinction d'espèces là où il a été introduit hors de son habitat naturel.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce prédateur semble chasser à l'odorat ; en suivant la piste « baveuse » (mucus) laissée par ses proies[2], piste qu'il sait (chimiquement) distinguer de celles laissées par ses congénères[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce prédateur semble chasser à l'odorat ; en suivant la piste « baveuse » (mucus) laissée par ses proies, piste qu'il sait (chimiquement) distinguer de celles laissées par ses congénères.
 </t>
         </is>
       </c>
@@ -543,11 +557,13 @@
           <t>Espèces invasives</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire du sud-est des États-Unis, il a été inconsidérément[4] introduit comme moyen de lutte biologique dans les îles de l'océan Indien et du pacifique pour contrôler la population d' Achatina fulica, un escargot géant lui-même introduit et devenu invasif (et de plus porteur et vecteur de maladies)[5].
-Euglandina rosea s'est cependant révélé être un prédateur redoutable pour les espèces locales qu'il contribue à décimer[6], en délaissant l' Achatina fulica.
-Des espèces endémiques de la Polynésie française ont disparu à la suite de cette introduction et d'autres, ainsi qu'à  Maurice[7] et Hawaii[8],[9] sont gravement menacées.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire du sud-est des États-Unis, il a été inconsidérément introduit comme moyen de lutte biologique dans les îles de l'océan Indien et du pacifique pour contrôler la population d' Achatina fulica, un escargot géant lui-même introduit et devenu invasif (et de plus porteur et vecteur de maladies).
+Euglandina rosea s'est cependant révélé être un prédateur redoutable pour les espèces locales qu'il contribue à décimer, en délaissant l' Achatina fulica.
+Des espèces endémiques de la Polynésie française ont disparu à la suite de cette introduction et d'autres, ainsi qu'à  Maurice et Hawaii, sont gravement menacées.
 </t>
         </is>
       </c>
